--- a/公園データ設備.xlsx
+++ b/公園データ設備.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>ID</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>トイレ種別</t>
+  </si>
+  <si>
+    <t>ブランコ</t>
+  </si>
+  <si>
+    <t>すべり台</t>
+  </si>
+  <si>
+    <t>鉄棒</t>
+  </si>
+  <si>
+    <t>ジャングルジム</t>
+  </si>
+  <si>
+    <t>砂場</t>
+  </si>
+  <si>
+    <t>シーソー</t>
   </si>
   <si>
     <t>無</t>
@@ -48,17 +66,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;\&quot;* #,##0_ ;_ &quot;\&quot;* \-#,##0_ ;_ &quot;\&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;\&quot;* #,##0.00_ ;_ &quot;\&quot;* \-#,##0.00_ ;_ &quot;\&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;\&quot;* #,##0_ ;_ &quot;\&quot;* \-#,##0_ ;_ &quot;\&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -68,11 +107,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -80,31 +114,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,9 +129,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,7 +174,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,24 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,14 +220,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -195,27 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,6 +247,24 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -238,7 +280,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +322,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,49 +388,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,43 +412,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,49 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +476,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -461,35 +503,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,11 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,146 +546,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -978,21 +1005,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.25833333333333"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="1018" width="9.25833333333333"/>
-    <col min="1019" max="1019" width="9.25833333333333"/>
+    <col min="4" max="6" width="9.25833333333333"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="1019" width="9.25833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,788 +1032,2407 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>9</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>9</v>
+      </c>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>9</v>
+      </c>
+      <c r="I49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
+        <v>9</v>
+      </c>
+      <c r="I53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" t="s">
+        <v>9</v>
+      </c>
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>9</v>
+      </c>
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" t="s">
+        <v>9</v>
+      </c>
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>9</v>
+      </c>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>9</v>
+      </c>
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>9</v>
+      </c>
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>9</v>
+      </c>
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>9</v>
+      </c>
+      <c r="I67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" t="s">
+        <v>9</v>
+      </c>
+      <c r="I69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>9</v>
+      </c>
+      <c r="I70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>9</v>
+      </c>
+      <c r="I73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" t="s">
+        <v>9</v>
+      </c>
+      <c r="I89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C90"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511111111111111" footer="0.511111111111111"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>

--- a/公園データ設備.xlsx
+++ b/公園データ設備.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="13">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">シーソー</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dumymy</t>
   </si>
   <si>
     <t xml:space="preserve">無</t>
@@ -181,10 +178,10 @@
   </sheetPr>
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A88" activeCellId="0" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -225,34 +222,31 @@
       <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -263,25 +257,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -292,25 +286,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,25 +312,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,25 +338,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,28 +364,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,25 +393,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,25 +419,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,25 +445,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -477,25 +471,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,25 +497,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -529,28 +523,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,25 +552,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,25 +578,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -610,25 +604,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,25 +630,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -662,28 +656,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,25 +685,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,25 +711,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,25 +737,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,25 +763,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -795,25 +789,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,25 +815,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,25 +841,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,25 +867,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,25 +893,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -925,25 +919,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,25 +945,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -977,25 +971,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1003,25 +997,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,25 +1023,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,28 +1049,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D33" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,25 +1078,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,25 +1104,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1136,28 +1130,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D36" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1165,28 +1159,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D37" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,25 +1188,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,28 +1214,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D39" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,25 +1243,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,28 +1269,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D41" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,25 +1298,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,28 +1324,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D43" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,28 +1353,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D44" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1388,25 +1382,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1414,25 +1408,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,25 +1434,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,25 +1460,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,25 +1486,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1518,25 +1512,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,25 +1538,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,28 +1564,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D52" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,25 +1593,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,25 +1619,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1651,25 +1645,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,25 +1671,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,25 +1697,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,25 +1723,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1755,28 +1749,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D59" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,25 +1778,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1810,25 +1804,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,25 +1830,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1862,25 +1856,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1888,25 +1882,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,25 +1908,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1940,25 +1934,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,25 +1960,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,25 +1986,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,25 +2012,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2044,25 +2038,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2070,28 +2064,28 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D71" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2099,28 +2093,28 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D72" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2128,28 +2122,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D73" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2157,25 +2151,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,25 +2177,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,25 +2203,25 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2235,25 +2229,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2261,28 +2255,28 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D78" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,25 +2284,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,25 +2310,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2342,25 +2336,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,25 +2362,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2394,28 +2388,28 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D83" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2423,25 +2417,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,25 +2443,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,28 +2469,28 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C86" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,28 +2498,28 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,28 +2527,28 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2562,28 +2556,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D89" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2591,28 +2585,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="D90" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
